--- a/input/INVENTAIRE052023.xlsx
+++ b/input/INVENTAIRE052023.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\donnesavrilmaijuinjuillet\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A4F013-AB6F-4AC6-A6AC-DAEDFF9B2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTAIRE052023" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INVENTAIRE052023!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -234,21 +238,12 @@
     <t>LAURENT-PERRIER</t>
   </si>
   <si>
-    <t>MOET CHANDOM</t>
-  </si>
-  <si>
     <t>140 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM ICE</t>
-  </si>
-  <si>
     <t>90 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM NECTAR</t>
-  </si>
-  <si>
     <t>80 000 CFA</t>
   </si>
   <si>
@@ -1138,12 +1133,21 @@
   </si>
   <si>
     <t>Mai</t>
+  </si>
+  <si>
+    <t>MOET CHANDON</t>
+  </si>
+  <si>
+    <t>MOET CHANDON ICE</t>
+  </si>
+  <si>
+    <t>MOET CHANDON NECTAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1625,48 +1629,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1943,14 +1947,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="N454" sqref="N454"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1984,10 +1986,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1995,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -2003,7 +2005,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L4">
         <v>2023</v>
@@ -2038,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L5">
         <v>2023</v>
@@ -2046,7 +2048,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L6">
         <v>2023</v>
@@ -2081,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L7">
         <v>2023</v>
@@ -2089,7 +2091,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L8">
         <v>2023</v>
@@ -2124,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L9">
         <v>2023</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L10">
         <v>2023</v>
@@ -2167,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L11">
         <v>2023</v>
@@ -2175,7 +2177,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -2210,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L13">
         <v>2023</v>
@@ -2218,7 +2220,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L14">
         <v>2023</v>
@@ -2226,7 +2228,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L15">
         <v>2023</v>
@@ -2234,7 +2236,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L16">
         <v>2023</v>
@@ -2245,7 +2247,7 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L17">
         <v>2023</v>
@@ -2253,7 +2255,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L18">
         <v>2023</v>
@@ -2291,7 +2293,7 @@
         <v>96000</v>
       </c>
       <c r="K19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L19">
         <v>2023</v>
@@ -2299,7 +2301,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L20">
         <v>2023</v>
@@ -2337,7 +2339,7 @@
         <v>16500</v>
       </c>
       <c r="K21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -2345,7 +2347,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L22">
         <v>2023</v>
@@ -2383,7 +2385,7 @@
         <v>257500</v>
       </c>
       <c r="K23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L23">
         <v>2023</v>
@@ -2391,7 +2393,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L24">
         <v>2023</v>
@@ -2429,7 +2431,7 @@
         <v>19500</v>
       </c>
       <c r="K25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L25">
         <v>2023</v>
@@ -2437,7 +2439,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L26">
         <v>2023</v>
@@ -2475,7 +2477,7 @@
         <v>4000</v>
       </c>
       <c r="K27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L27">
         <v>2023</v>
@@ -2483,7 +2485,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -2521,7 +2523,7 @@
         <v>184000</v>
       </c>
       <c r="K29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -2529,7 +2531,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -2567,7 +2569,7 @@
         <v>15000</v>
       </c>
       <c r="K31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -2575,7 +2577,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L32">
         <v>2023</v>
@@ -2613,7 +2615,7 @@
         <v>116000</v>
       </c>
       <c r="K33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L33">
         <v>2023</v>
@@ -2621,7 +2623,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -2659,7 +2661,7 @@
         <v>6000</v>
       </c>
       <c r="K35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L35">
         <v>2023</v>
@@ -2667,7 +2669,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L36">
         <v>2023</v>
@@ -2705,7 +2707,7 @@
         <v>44000</v>
       </c>
       <c r="K37" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L37">
         <v>2023</v>
@@ -2713,7 +2715,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L38">
         <v>2023</v>
@@ -2751,7 +2753,7 @@
         <v>758500</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L39">
         <v>2023</v>
@@ -2759,7 +2761,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L40">
         <v>2023</v>
@@ -2767,7 +2769,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L41">
         <v>2023</v>
@@ -2775,7 +2777,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L42">
         <v>2023</v>
@@ -2786,7 +2788,7 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L43">
         <v>2023</v>
@@ -2794,7 +2796,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L44">
         <v>2023</v>
@@ -2832,7 +2834,7 @@
         <v>65000</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L45">
         <v>2023</v>
@@ -2840,7 +2842,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L46">
         <v>2023</v>
@@ -2878,7 +2880,7 @@
         <v>66000</v>
       </c>
       <c r="K47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L47">
         <v>2023</v>
@@ -2886,7 +2888,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L48">
         <v>2023</v>
@@ -2924,7 +2926,7 @@
         <v>20000</v>
       </c>
       <c r="K49" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L49">
         <v>2023</v>
@@ -2932,7 +2934,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L50">
         <v>2023</v>
@@ -2970,7 +2972,7 @@
         <v>48000</v>
       </c>
       <c r="K51" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L51">
         <v>2023</v>
@@ -2978,7 +2980,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L52">
         <v>2023</v>
@@ -3016,7 +3018,7 @@
         <v>111000</v>
       </c>
       <c r="K53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L53">
         <v>2023</v>
@@ -3024,7 +3026,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L54">
         <v>2023</v>
@@ -3062,7 +3064,7 @@
         <v>200000</v>
       </c>
       <c r="K55" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L55">
         <v>2023</v>
@@ -3070,7 +3072,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L56">
         <v>2023</v>
@@ -3108,7 +3110,7 @@
         <v>118750</v>
       </c>
       <c r="K57" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L57">
         <v>2023</v>
@@ -3116,7 +3118,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L58">
         <v>2023</v>
@@ -3154,7 +3156,7 @@
         <v>76500</v>
       </c>
       <c r="K59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L59">
         <v>2023</v>
@@ -3162,7 +3164,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L60">
         <v>2023</v>
@@ -3200,7 +3202,7 @@
         <v>40000</v>
       </c>
       <c r="K61" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L61">
         <v>2023</v>
@@ -3208,7 +3210,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L62">
         <v>2023</v>
@@ -3246,7 +3248,7 @@
         <v>126000</v>
       </c>
       <c r="K63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L63">
         <v>2023</v>
@@ -3254,7 +3256,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L64">
         <v>2023</v>
@@ -3292,7 +3294,7 @@
         <v>72000</v>
       </c>
       <c r="K65" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L65">
         <v>2023</v>
@@ -3300,7 +3302,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L66">
         <v>2023</v>
@@ -3338,7 +3340,7 @@
         <v>40000</v>
       </c>
       <c r="K67" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L67">
         <v>2023</v>
@@ -3346,7 +3348,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L68">
         <v>2023</v>
@@ -3384,7 +3386,7 @@
         <v>983250</v>
       </c>
       <c r="K69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L69">
         <v>2023</v>
@@ -3392,7 +3394,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L70">
         <v>2023</v>
@@ -3400,7 +3402,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K71" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L71">
         <v>2023</v>
@@ -3408,7 +3410,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L72">
         <v>2023</v>
@@ -3419,7 +3421,7 @@
         <v>69</v>
       </c>
       <c r="K73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L73">
         <v>2023</v>
@@ -3427,7 +3429,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K74" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L74">
         <v>2023</v>
@@ -3465,7 +3467,7 @@
         <v>65000</v>
       </c>
       <c r="K75" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L75">
         <v>2023</v>
@@ -3473,7 +3475,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L76">
         <v>2023</v>
@@ -3481,7 +3483,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -3496,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -3505,13 +3507,13 @@
         <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J77">
         <v>140000</v>
       </c>
       <c r="K77" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -3519,7 +3521,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L78">
         <v>2023</v>
@@ -3527,7 +3529,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3542,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -3551,13 +3553,13 @@
         <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J79">
         <v>90000</v>
       </c>
       <c r="K79" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L79">
         <v>2023</v>
@@ -3565,7 +3567,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L80">
         <v>2023</v>
@@ -3573,7 +3575,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3588,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -3597,13 +3599,13 @@
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J81">
         <v>80000</v>
       </c>
       <c r="K81" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L81">
         <v>2023</v>
@@ -3611,7 +3613,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L82">
         <v>2023</v>
@@ -3619,7 +3621,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3634,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -3643,13 +3645,13 @@
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J83">
         <v>90000</v>
       </c>
       <c r="K83" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L83">
         <v>2023</v>
@@ -3657,7 +3659,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L84">
         <v>2023</v>
@@ -3665,7 +3667,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3680,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -3689,13 +3691,13 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J85">
         <v>400000</v>
       </c>
       <c r="K85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L85">
         <v>2023</v>
@@ -3703,7 +3705,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L86">
         <v>2023</v>
@@ -3711,7 +3713,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B87">
         <v>11</v>
@@ -3726,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -3735,13 +3737,13 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J87">
         <v>865000</v>
       </c>
       <c r="K87" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L87">
         <v>2023</v>
@@ -3749,7 +3751,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L88">
         <v>2023</v>
@@ -3757,7 +3759,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K89" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L89">
         <v>2023</v>
@@ -3765,7 +3767,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L90">
         <v>2023</v>
@@ -3773,10 +3775,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K91" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L91">
         <v>2023</v>
@@ -3784,7 +3786,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L92">
         <v>2023</v>
@@ -3792,7 +3794,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>39</v>
@@ -3807,22 +3809,22 @@
         <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I93" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J93">
         <v>129500</v>
       </c>
       <c r="K93" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L93">
         <v>2023</v>
@@ -3830,7 +3832,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L94">
         <v>2023</v>
@@ -3838,7 +3840,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>312</v>
@@ -3853,22 +3855,22 @@
         <v>312</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J95">
         <v>1849000</v>
       </c>
       <c r="K95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L95">
         <v>2023</v>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L96">
         <v>2023</v>
@@ -3884,7 +3886,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97">
         <v>351</v>
@@ -3899,22 +3901,22 @@
         <v>351</v>
       </c>
       <c r="F97" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I97" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J97">
         <v>1978500</v>
       </c>
       <c r="K97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L97">
         <v>2023</v>
@@ -3922,7 +3924,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L98">
         <v>2023</v>
@@ -3930,7 +3932,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L99">
         <v>2023</v>
@@ -3938,7 +3940,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L100">
         <v>2023</v>
@@ -3946,10 +3948,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K101" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L101">
         <v>2023</v>
@@ -3957,7 +3959,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L102">
         <v>2023</v>
@@ -3965,7 +3967,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B103">
         <v>16</v>
@@ -3995,7 +3997,7 @@
         <v>72000</v>
       </c>
       <c r="K103" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L103">
         <v>2023</v>
@@ -4003,7 +4005,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L104">
         <v>2023</v>
@@ -4011,7 +4013,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -4026,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -4035,13 +4037,13 @@
         <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J105">
         <v>36000</v>
       </c>
       <c r="K105" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L105">
         <v>2023</v>
@@ -4049,7 +4051,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L106">
         <v>2023</v>
@@ -4057,7 +4059,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -4072,7 +4074,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -4081,13 +4083,13 @@
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J107">
         <v>27000</v>
       </c>
       <c r="K107" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L107">
         <v>2023</v>
@@ -4095,7 +4097,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L108">
         <v>2023</v>
@@ -4103,7 +4105,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B109">
         <v>14</v>
@@ -4118,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G109" t="s">
         <v>12</v>
@@ -4127,13 +4129,13 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J109">
         <v>63000</v>
       </c>
       <c r="K109" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L109">
         <v>2023</v>
@@ -4141,7 +4143,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L110">
         <v>2023</v>
@@ -4149,7 +4151,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>52</v>
@@ -4164,7 +4166,7 @@
         <v>52</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
@@ -4173,13 +4175,13 @@
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J111">
         <v>234000</v>
       </c>
       <c r="K111" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L111">
         <v>2023</v>
@@ -4187,7 +4189,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L112">
         <v>2023</v>
@@ -4195,7 +4197,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B113">
         <v>31</v>
@@ -4210,7 +4212,7 @@
         <v>31</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -4219,13 +4221,13 @@
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J113">
         <v>139500</v>
       </c>
       <c r="K113" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L113">
         <v>2023</v>
@@ -4233,7 +4235,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K114" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L114">
         <v>2023</v>
@@ -4241,7 +4243,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115">
         <v>97</v>
@@ -4256,22 +4258,22 @@
         <v>97</v>
       </c>
       <c r="F115" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J115">
         <v>427500</v>
       </c>
       <c r="K115" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L115">
         <v>2023</v>
@@ -4279,7 +4281,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K116" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L116">
         <v>2023</v>
@@ -4287,7 +4289,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4302,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G117" t="s">
         <v>12</v>
@@ -4311,13 +4313,13 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J117">
         <v>4500</v>
       </c>
       <c r="K117" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L117">
         <v>2023</v>
@@ -4325,7 +4327,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K118" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L118">
         <v>2023</v>
@@ -4333,7 +4335,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B119">
         <v>25</v>
@@ -4348,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="F119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -4357,13 +4359,13 @@
         <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J119">
         <v>112500</v>
       </c>
       <c r="K119" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L119">
         <v>2023</v>
@@ -4371,7 +4373,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K120" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L120">
         <v>2023</v>
@@ -4379,7 +4381,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>24</v>
@@ -4394,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -4403,13 +4405,13 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J121">
         <v>108000</v>
       </c>
       <c r="K121" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L121">
         <v>2023</v>
@@ -4417,7 +4419,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L122">
         <v>2023</v>
@@ -4425,7 +4427,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B123">
         <v>23</v>
@@ -4440,7 +4442,7 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -4449,13 +4451,13 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J123">
         <v>103500</v>
       </c>
       <c r="K123" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -4463,7 +4465,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K124" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -4471,7 +4473,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B125">
         <v>37</v>
@@ -4486,7 +4488,7 @@
         <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -4495,13 +4497,13 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J125">
         <v>166500</v>
       </c>
       <c r="K125" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -4509,7 +4511,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -4517,7 +4519,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B127">
         <v>334</v>
@@ -4532,22 +4534,22 @@
         <v>334</v>
       </c>
       <c r="F127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I127" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J127">
         <v>1494000</v>
       </c>
       <c r="K127" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -4555,7 +4557,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K128" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -4563,7 +4565,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K129" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -4571,7 +4573,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K130" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -4579,10 +4581,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K131" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -4590,7 +4592,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K132" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -4598,7 +4600,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -4613,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -4622,13 +4624,13 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J133">
         <v>16000</v>
       </c>
       <c r="K133" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L133">
         <v>2023</v>
@@ -4636,7 +4638,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K134" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L134">
         <v>2023</v>
@@ -4644,7 +4646,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -4659,7 +4661,7 @@
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -4668,13 +4670,13 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J135">
         <v>56000</v>
       </c>
       <c r="K135" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L135">
         <v>2023</v>
@@ -4682,7 +4684,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L136">
         <v>2023</v>
@@ -4690,7 +4692,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B137">
         <v>18</v>
@@ -4720,7 +4722,7 @@
         <v>72000</v>
       </c>
       <c r="K137" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L137">
         <v>2023</v>
@@ -4728,7 +4730,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K138" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L138">
         <v>2023</v>
@@ -4736,7 +4738,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B139">
         <v>31</v>
@@ -4751,7 +4753,7 @@
         <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -4766,7 +4768,7 @@
         <v>120000</v>
       </c>
       <c r="K139" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L139">
         <v>2023</v>
@@ -4774,7 +4776,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K140" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L140">
         <v>2023</v>
@@ -4782,7 +4784,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B141">
         <v>8</v>
@@ -4797,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -4806,13 +4808,13 @@
         <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J141">
         <v>32000</v>
       </c>
       <c r="K141" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L141">
         <v>2023</v>
@@ -4820,7 +4822,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K142" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L142">
         <v>2023</v>
@@ -4828,7 +4830,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B143">
         <v>61</v>
@@ -4843,22 +4845,22 @@
         <v>61</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J143">
         <v>242000</v>
       </c>
       <c r="K143" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L143">
         <v>2023</v>
@@ -4866,7 +4868,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K144" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L144">
         <v>2023</v>
@@ -4874,7 +4876,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B145">
         <v>40</v>
@@ -4889,7 +4891,7 @@
         <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -4898,13 +4900,13 @@
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J145">
         <v>160000</v>
       </c>
       <c r="K145" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L145">
         <v>2023</v>
@@ -4912,7 +4914,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K146" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -4920,7 +4922,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B147">
         <v>176</v>
@@ -4935,7 +4937,7 @@
         <v>176</v>
       </c>
       <c r="F147" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -4944,13 +4946,13 @@
         <v>35</v>
       </c>
       <c r="I147" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J147">
         <v>698000</v>
       </c>
       <c r="K147" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -4958,7 +4960,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K148" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -4966,7 +4968,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K149" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -4974,7 +4976,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K150" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -4982,10 +4984,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K151" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K152" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -5001,7 +5003,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B153">
         <v>14</v>
@@ -5016,7 +5018,7 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -5025,13 +5027,13 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J153">
         <v>70000</v>
       </c>
       <c r="K153" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -5039,7 +5041,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K154" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -5047,37 +5049,37 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>143</v>
+      </c>
+      <c r="B155">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s">
+        <v>144</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>145</v>
+      </c>
+      <c r="I155" t="s">
         <v>146</v>
-      </c>
-      <c r="B155">
-        <v>12</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>12</v>
-      </c>
-      <c r="F155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" t="s">
-        <v>148</v>
-      </c>
-      <c r="I155" t="s">
-        <v>149</v>
       </c>
       <c r="J155">
         <v>675000</v>
       </c>
       <c r="K155" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -5085,7 +5087,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K156" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -5093,7 +5095,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -5108,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -5117,13 +5119,13 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J157">
         <v>9000</v>
       </c>
       <c r="K157" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -5131,7 +5133,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K158" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L158">
         <v>2023</v>
@@ -5139,7 +5141,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5154,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -5163,13 +5165,13 @@
         <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J159">
         <v>55000</v>
       </c>
       <c r="K159" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L159">
         <v>2023</v>
@@ -5177,7 +5179,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K160" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L160">
         <v>2023</v>
@@ -5185,7 +5187,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B161">
         <v>29</v>
@@ -5200,22 +5202,22 @@
         <v>29</v>
       </c>
       <c r="F161" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J161">
         <v>809000</v>
       </c>
       <c r="K161" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L161">
         <v>2023</v>
@@ -5223,7 +5225,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K162" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L162">
         <v>2023</v>
@@ -5231,7 +5233,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K163" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L163">
         <v>2023</v>
@@ -5239,7 +5241,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K164" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L164">
         <v>2023</v>
@@ -5247,10 +5249,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K165" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L165">
         <v>2023</v>
@@ -5258,7 +5260,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K166" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L166">
         <v>2023</v>
@@ -5266,7 +5268,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -5281,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -5290,13 +5292,13 @@
         <v>12</v>
       </c>
       <c r="I167" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J167">
         <v>10500</v>
       </c>
       <c r="K167" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L167">
         <v>2023</v>
@@ -5304,7 +5306,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K168" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L168">
         <v>2023</v>
@@ -5312,7 +5314,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B169">
         <v>6</v>
@@ -5327,7 +5329,7 @@
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -5336,13 +5338,13 @@
         <v>12</v>
       </c>
       <c r="I169" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J169">
         <v>24000</v>
       </c>
       <c r="K169" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L169">
         <v>2023</v>
@@ -5350,7 +5352,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K170" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L170">
         <v>2023</v>
@@ -5358,7 +5360,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5373,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G171" t="s">
         <v>12</v>
@@ -5382,13 +5384,13 @@
         <v>12</v>
       </c>
       <c r="I171" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J171">
         <v>3500</v>
       </c>
       <c r="K171" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L171">
         <v>2023</v>
@@ -5396,7 +5398,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K172" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L172">
         <v>2023</v>
@@ -5404,7 +5406,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -5434,7 +5436,7 @@
         <v>15000</v>
       </c>
       <c r="K173" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L173">
         <v>2023</v>
@@ -5442,7 +5444,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K174" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L174">
         <v>2023</v>
@@ -5450,7 +5452,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -5480,7 +5482,7 @@
         <v>6000</v>
       </c>
       <c r="K175" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L175">
         <v>2023</v>
@@ -5488,7 +5490,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K176" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L176">
         <v>2023</v>
@@ -5496,7 +5498,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -5511,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -5520,13 +5522,13 @@
         <v>12</v>
       </c>
       <c r="I177" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J177">
         <v>7000</v>
       </c>
       <c r="K177" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L177">
         <v>2023</v>
@@ -5534,7 +5536,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K178" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L178">
         <v>2023</v>
@@ -5542,7 +5544,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B179">
         <v>19</v>
@@ -5572,7 +5574,7 @@
         <v>66000</v>
       </c>
       <c r="K179" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L179">
         <v>2023</v>
@@ -5580,7 +5582,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K180" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L180">
         <v>2023</v>
@@ -5588,7 +5590,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K181" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L181">
         <v>2023</v>
@@ -5596,7 +5598,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K182" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L182">
         <v>2023</v>
@@ -5604,10 +5606,10 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K183" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -5615,7 +5617,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K184" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -5623,7 +5625,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -5638,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -5647,13 +5649,13 @@
         <v>46</v>
       </c>
       <c r="I185" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J185">
         <v>80000</v>
       </c>
       <c r="K185" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -5661,7 +5663,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K186" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -5669,7 +5671,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -5699,7 +5701,7 @@
         <v>40000</v>
       </c>
       <c r="K187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -5707,7 +5709,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -5715,7 +5717,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -5730,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G189" t="s">
         <v>12</v>
@@ -5739,13 +5741,13 @@
         <v>12</v>
       </c>
       <c r="I189" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J189">
         <v>60000</v>
       </c>
       <c r="K189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -5753,7 +5755,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K190" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -5761,7 +5763,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5776,22 +5778,22 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G191" t="s">
         <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I191" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J191">
         <v>25000</v>
       </c>
       <c r="K191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L191">
         <v>2023</v>
@@ -5799,7 +5801,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L192">
         <v>2023</v>
@@ -5807,7 +5809,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -5822,22 +5824,22 @@
         <v>7</v>
       </c>
       <c r="F193" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
       </c>
       <c r="H193" t="s">
+        <v>172</v>
+      </c>
+      <c r="I193" t="s">
         <v>175</v>
-      </c>
-      <c r="I193" t="s">
-        <v>178</v>
       </c>
       <c r="J193">
         <v>205000</v>
       </c>
       <c r="K193" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L193">
         <v>2023</v>
@@ -5845,7 +5847,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L194">
         <v>2023</v>
@@ -5853,7 +5855,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K195" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L195">
         <v>2023</v>
@@ -5861,7 +5863,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K196" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L196">
         <v>2023</v>
@@ -5869,10 +5871,10 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K197" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L197">
         <v>2023</v>
@@ -5880,7 +5882,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K198" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L198">
         <v>2023</v>
@@ -5888,7 +5890,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B199">
         <v>24</v>
@@ -5903,7 +5905,7 @@
         <v>24</v>
       </c>
       <c r="F199" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G199" t="s">
         <v>12</v>
@@ -5912,13 +5914,13 @@
         <v>12</v>
       </c>
       <c r="I199" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J199">
         <v>144000</v>
       </c>
       <c r="K199" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L199">
         <v>2023</v>
@@ -5926,7 +5928,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K200" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L200">
         <v>2023</v>
@@ -5934,7 +5936,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B201">
         <v>8</v>
@@ -5964,7 +5966,7 @@
         <v>48000</v>
       </c>
       <c r="K201" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L201">
         <v>2023</v>
@@ -5972,7 +5974,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K202" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L202">
         <v>2023</v>
@@ -5980,7 +5982,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B203">
         <v>20</v>
@@ -6010,7 +6012,7 @@
         <v>120000</v>
       </c>
       <c r="K203" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L203">
         <v>2023</v>
@@ -6018,7 +6020,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K204" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L204">
         <v>2023</v>
@@ -6026,7 +6028,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B205">
         <v>35</v>
@@ -6041,7 +6043,7 @@
         <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G205" t="s">
         <v>12</v>
@@ -6050,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J205">
         <v>210000</v>
       </c>
       <c r="K205" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L205">
         <v>2023</v>
@@ -6064,7 +6066,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K206" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L206">
         <v>2023</v>
@@ -6072,7 +6074,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B207">
         <v>11</v>
@@ -6102,7 +6104,7 @@
         <v>66000</v>
       </c>
       <c r="K207" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L207">
         <v>2023</v>
@@ -6110,7 +6112,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K208" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L208">
         <v>2023</v>
@@ -6118,7 +6120,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B209">
         <v>98</v>
@@ -6133,7 +6135,7 @@
         <v>98</v>
       </c>
       <c r="F209" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
@@ -6142,13 +6144,13 @@
         <v>12</v>
       </c>
       <c r="I209" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J209">
         <v>588000</v>
       </c>
       <c r="K209" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L209">
         <v>2023</v>
@@ -6156,7 +6158,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K210" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L210">
         <v>2023</v>
@@ -6164,7 +6166,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K211" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L211">
         <v>2023</v>
@@ -6172,7 +6174,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K212" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L212">
         <v>2023</v>
@@ -6180,10 +6182,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K213" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L213">
         <v>2023</v>
@@ -6191,7 +6193,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K214" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L214">
         <v>2023</v>
@@ -6199,7 +6201,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -6214,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G215" t="s">
         <v>12</v>
@@ -6223,13 +6225,13 @@
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J215">
         <v>14000</v>
       </c>
       <c r="K215" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L215">
         <v>2023</v>
@@ -6237,7 +6239,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K216" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L216">
         <v>2023</v>
@@ -6245,7 +6247,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -6260,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G217" t="s">
         <v>12</v>
@@ -6269,13 +6271,13 @@
         <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J217">
         <v>45000</v>
       </c>
       <c r="K217" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L217">
         <v>2023</v>
@@ -6283,7 +6285,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K218" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L218">
         <v>2023</v>
@@ -6291,7 +6293,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B219">
         <v>6</v>
@@ -6321,7 +6323,7 @@
         <v>15000</v>
       </c>
       <c r="K219" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -6329,7 +6331,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K220" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -6337,7 +6339,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B221">
         <v>9</v>
@@ -6352,7 +6354,7 @@
         <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G221" t="s">
         <v>12</v>
@@ -6361,13 +6363,13 @@
         <v>12</v>
       </c>
       <c r="I221" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J221">
         <v>315000</v>
       </c>
       <c r="K221" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -6375,7 +6377,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K222" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -6383,7 +6385,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -6398,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G223" t="s">
         <v>12</v>
@@ -6407,13 +6409,13 @@
         <v>12</v>
       </c>
       <c r="I223" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J223">
         <v>165000</v>
       </c>
       <c r="K223" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -6421,7 +6423,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K224" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -6429,7 +6431,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B225">
         <v>23</v>
@@ -6444,7 +6446,7 @@
         <v>23</v>
       </c>
       <c r="F225" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G225" t="s">
         <v>12</v>
@@ -6453,13 +6455,13 @@
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J225">
         <v>554000</v>
       </c>
       <c r="K225" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -6467,7 +6469,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K226" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -6475,7 +6477,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K227" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -6483,7 +6485,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K228" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -6491,10 +6493,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K229" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L229">
         <v>2023</v>
@@ -6502,7 +6504,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K230" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L230">
         <v>2023</v>
@@ -6510,7 +6512,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B231">
         <v>39</v>
@@ -6525,7 +6527,7 @@
         <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G231" t="s">
         <v>12</v>
@@ -6534,13 +6536,13 @@
         <v>12</v>
       </c>
       <c r="I231" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J231">
         <v>156000</v>
       </c>
       <c r="K231" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L231">
         <v>2023</v>
@@ -6548,7 +6550,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K232" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L232">
         <v>2023</v>
@@ -6556,7 +6558,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B233">
         <v>3</v>
@@ -6571,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="F233" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -6580,13 +6582,13 @@
         <v>12</v>
       </c>
       <c r="I233" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J233">
         <v>18000</v>
       </c>
       <c r="K233" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L233">
         <v>2023</v>
@@ -6594,7 +6596,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K234" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L234">
         <v>2023</v>
@@ -6602,7 +6604,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B235">
         <v>7</v>
@@ -6617,7 +6619,7 @@
         <v>7</v>
       </c>
       <c r="F235" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G235" t="s">
         <v>12</v>
@@ -6626,13 +6628,13 @@
         <v>12</v>
       </c>
       <c r="I235" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J235">
         <v>35000</v>
       </c>
       <c r="K235" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L235">
         <v>2023</v>
@@ -6640,7 +6642,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K236" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L236">
         <v>2023</v>
@@ -6648,7 +6650,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B237">
         <v>20</v>
@@ -6663,7 +6665,7 @@
         <v>20</v>
       </c>
       <c r="F237" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G237" t="s">
         <v>12</v>
@@ -6672,13 +6674,13 @@
         <v>12</v>
       </c>
       <c r="I237" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J237">
         <v>100000</v>
       </c>
       <c r="K237" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L237">
         <v>2023</v>
@@ -6686,7 +6688,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K238" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L238">
         <v>2023</v>
@@ -6694,7 +6696,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B239">
         <v>69</v>
@@ -6709,7 +6711,7 @@
         <v>69</v>
       </c>
       <c r="F239" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G239" t="s">
         <v>12</v>
@@ -6718,13 +6720,13 @@
         <v>12</v>
       </c>
       <c r="I239" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J239">
         <v>309000</v>
       </c>
       <c r="K239" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L239">
         <v>2023</v>
@@ -6732,7 +6734,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K240" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L240">
         <v>2023</v>
@@ -6740,7 +6742,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K241" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L241">
         <v>2023</v>
@@ -6748,7 +6750,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K242" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L242">
         <v>2023</v>
@@ -6756,10 +6758,10 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K243" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L243">
         <v>2023</v>
@@ -6767,7 +6769,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K244" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L244">
         <v>2023</v>
@@ -6775,7 +6777,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B245">
         <v>8</v>
@@ -6790,7 +6792,7 @@
         <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G245" t="s">
         <v>12</v>
@@ -6799,13 +6801,13 @@
         <v>12</v>
       </c>
       <c r="I245" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J245">
         <v>60000</v>
       </c>
       <c r="K245" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L245">
         <v>2023</v>
@@ -6813,7 +6815,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K246" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L246">
         <v>2023</v>
@@ -6821,7 +6823,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B247">
         <v>13</v>
@@ -6836,7 +6838,7 @@
         <v>13</v>
       </c>
       <c r="F247" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G247" t="s">
         <v>12</v>
@@ -6845,13 +6847,13 @@
         <v>12</v>
       </c>
       <c r="I247" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J247">
         <v>110500</v>
       </c>
       <c r="K247" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L247">
         <v>2023</v>
@@ -6859,7 +6861,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K248" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L248">
         <v>2023</v>
@@ -6867,7 +6869,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B249">
         <v>5</v>
@@ -6897,7 +6899,7 @@
         <v>40000</v>
       </c>
       <c r="K249" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L249">
         <v>2023</v>
@@ -6905,7 +6907,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K250" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L250">
         <v>2023</v>
@@ -6913,7 +6915,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B251">
         <v>8</v>
@@ -6943,7 +6945,7 @@
         <v>96000</v>
       </c>
       <c r="K251" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L251">
         <v>2023</v>
@@ -6951,7 +6953,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K252" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L252">
         <v>2023</v>
@@ -6959,7 +6961,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -6989,7 +6991,7 @@
         <v>48000</v>
       </c>
       <c r="K253" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L253">
         <v>2023</v>
@@ -6997,7 +6999,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K254" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L254">
         <v>2023</v>
@@ -7005,7 +7007,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B255">
         <v>64</v>
@@ -7020,7 +7022,7 @@
         <v>64</v>
       </c>
       <c r="F255" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G255" t="s">
         <v>12</v>
@@ -7029,13 +7031,13 @@
         <v>12</v>
       </c>
       <c r="I255" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J255">
         <v>480000</v>
       </c>
       <c r="K255" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L255">
         <v>2023</v>
@@ -7043,7 +7045,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K256" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L256">
         <v>2023</v>
@@ -7051,7 +7053,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B257">
         <v>33</v>
@@ -7066,22 +7068,22 @@
         <v>33</v>
       </c>
       <c r="F257" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G257" t="s">
         <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I257" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J257">
         <v>186000</v>
       </c>
       <c r="K257" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L257">
         <v>2023</v>
@@ -7089,7 +7091,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K258" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L258">
         <v>2023</v>
@@ -7097,7 +7099,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B259">
         <v>137</v>
@@ -7112,22 +7114,22 @@
         <v>137</v>
       </c>
       <c r="F259" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G259" t="s">
         <v>12</v>
       </c>
       <c r="H259" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I259" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J259">
         <v>1020500</v>
       </c>
       <c r="K259" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L259">
         <v>2023</v>
@@ -7135,7 +7137,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K260" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L260">
         <v>2023</v>
@@ -7143,7 +7145,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K261" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L261">
         <v>2023</v>
@@ -7151,7 +7153,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K262" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L262">
         <v>2023</v>
@@ -7159,10 +7161,10 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K263" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L263">
         <v>2023</v>
@@ -7170,7 +7172,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K264" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L264">
         <v>2023</v>
@@ -7178,7 +7180,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B265">
         <v>18</v>
@@ -7193,7 +7195,7 @@
         <v>18</v>
       </c>
       <c r="F265" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G265" t="s">
         <v>12</v>
@@ -7202,13 +7204,13 @@
         <v>12</v>
       </c>
       <c r="I265" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J265">
         <v>720000</v>
       </c>
       <c r="K265" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L265">
         <v>2023</v>
@@ -7216,7 +7218,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K266" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L266">
         <v>2023</v>
@@ -7224,7 +7226,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -7239,7 +7241,7 @@
         <v>3</v>
       </c>
       <c r="F267" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G267" t="s">
         <v>12</v>
@@ -7248,13 +7250,13 @@
         <v>12</v>
       </c>
       <c r="I267" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J267">
         <v>9000</v>
       </c>
       <c r="K267" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L267">
         <v>2023</v>
@@ -7262,7 +7264,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K268" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L268">
         <v>2023</v>
@@ -7270,7 +7272,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B269">
         <v>4</v>
@@ -7285,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="F269" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G269" t="s">
         <v>12</v>
@@ -7294,13 +7296,13 @@
         <v>12</v>
       </c>
       <c r="I269" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J269">
         <v>160000</v>
       </c>
       <c r="K269" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L269">
         <v>2023</v>
@@ -7308,7 +7310,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K270" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L270">
         <v>2023</v>
@@ -7316,7 +7318,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B271">
         <v>25</v>
@@ -7331,7 +7333,7 @@
         <v>25</v>
       </c>
       <c r="F271" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G271" t="s">
         <v>12</v>
@@ -7340,13 +7342,13 @@
         <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J271">
         <v>889000</v>
       </c>
       <c r="K271" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L271">
         <v>2023</v>
@@ -7354,7 +7356,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K272" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L272">
         <v>2023</v>
@@ -7362,7 +7364,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K273" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L273">
         <v>2023</v>
@@ -7370,7 +7372,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K274" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L274">
         <v>2023</v>
@@ -7378,10 +7380,10 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K275" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L275">
         <v>2023</v>
@@ -7389,7 +7391,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K276" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L276">
         <v>2023</v>
@@ -7397,7 +7399,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B277">
         <v>11</v>
@@ -7427,7 +7429,7 @@
         <v>44000</v>
       </c>
       <c r="K277" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L277">
         <v>2023</v>
@@ -7435,7 +7437,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K278" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L278">
         <v>2023</v>
@@ -7443,7 +7445,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B279">
         <v>13</v>
@@ -7458,7 +7460,7 @@
         <v>13</v>
       </c>
       <c r="F279" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G279" t="s">
         <v>12</v>
@@ -7467,13 +7469,13 @@
         <v>12</v>
       </c>
       <c r="I279" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J279">
         <v>52000</v>
       </c>
       <c r="K279" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L279">
         <v>2023</v>
@@ -7481,7 +7483,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K280" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L280">
         <v>2023</v>
@@ -7489,7 +7491,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B281">
         <v>8</v>
@@ -7504,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="F281" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G281" t="s">
         <v>12</v>
@@ -7513,13 +7515,13 @@
         <v>12</v>
       </c>
       <c r="I281" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J281">
         <v>24000</v>
       </c>
       <c r="K281" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L281">
         <v>2023</v>
@@ -7527,7 +7529,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K282" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L282">
         <v>2023</v>
@@ -7535,7 +7537,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B283">
         <v>14</v>
@@ -7550,7 +7552,7 @@
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G283" t="s">
         <v>12</v>
@@ -7559,13 +7561,13 @@
         <v>12</v>
       </c>
       <c r="I283" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J283">
         <v>56000</v>
       </c>
       <c r="K283" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L283">
         <v>2023</v>
@@ -7573,7 +7575,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K284" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L284">
         <v>2023</v>
@@ -7581,7 +7583,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B285">
         <v>21</v>
@@ -7596,7 +7598,7 @@
         <v>21</v>
       </c>
       <c r="F285" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G285" t="s">
         <v>12</v>
@@ -7605,13 +7607,13 @@
         <v>12</v>
       </c>
       <c r="I285" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J285">
         <v>84000</v>
       </c>
       <c r="K285" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L285">
         <v>2023</v>
@@ -7619,7 +7621,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K286" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L286">
         <v>2023</v>
@@ -7627,7 +7629,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B287">
         <v>67</v>
@@ -7642,7 +7644,7 @@
         <v>67</v>
       </c>
       <c r="F287" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G287" t="s">
         <v>12</v>
@@ -7651,13 +7653,13 @@
         <v>12</v>
       </c>
       <c r="I287" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J287">
         <v>260000</v>
       </c>
       <c r="K287" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L287">
         <v>2023</v>
@@ -7665,7 +7667,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K288" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L288">
         <v>2023</v>
@@ -7673,7 +7675,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K289" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L289">
         <v>2023</v>
@@ -7681,7 +7683,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K290" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L290">
         <v>2023</v>
@@ -7689,10 +7691,10 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K291" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L291">
         <v>2023</v>
@@ -7700,7 +7702,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K292" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L292">
         <v>2023</v>
@@ -7708,7 +7710,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B293">
         <v>21</v>
@@ -7723,7 +7725,7 @@
         <v>21</v>
       </c>
       <c r="F293" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G293" t="s">
         <v>12</v>
@@ -7732,13 +7734,13 @@
         <v>12</v>
       </c>
       <c r="I293" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J293">
         <v>52500</v>
       </c>
       <c r="K293" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L293">
         <v>2023</v>
@@ -7746,7 +7748,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K294" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L294">
         <v>2023</v>
@@ -7754,7 +7756,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B295">
         <v>4</v>
@@ -7769,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="F295" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G295" t="s">
         <v>12</v>
@@ -7778,13 +7780,13 @@
         <v>12</v>
       </c>
       <c r="I295" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J295">
         <v>140000</v>
       </c>
       <c r="K295" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L295">
         <v>2023</v>
@@ -7792,7 +7794,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K296" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L296">
         <v>2023</v>
@@ -7800,7 +7802,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B297">
         <v>12</v>
@@ -7815,7 +7817,7 @@
         <v>12</v>
       </c>
       <c r="F297" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G297" t="s">
         <v>12</v>
@@ -7824,13 +7826,13 @@
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J297">
         <v>18000</v>
       </c>
       <c r="K297" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L297">
         <v>2023</v>
@@ -7838,7 +7840,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K298" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L298">
         <v>2023</v>
@@ -7846,7 +7848,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -7873,7 +7875,7 @@
         <v>12</v>
       </c>
       <c r="K299" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L299">
         <v>2023</v>
@@ -7881,7 +7883,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K300" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L300">
         <v>2023</v>
@@ -7889,7 +7891,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -7904,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="F301" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G301" t="s">
         <v>12</v>
@@ -7913,13 +7915,13 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J301">
         <v>70000</v>
       </c>
       <c r="K301" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L301">
         <v>2023</v>
@@ -7927,7 +7929,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K302" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L302">
         <v>2023</v>
@@ -7935,7 +7937,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B303">
         <v>17</v>
@@ -7950,7 +7952,7 @@
         <v>17</v>
       </c>
       <c r="F303" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G303" t="s">
         <v>12</v>
@@ -7959,13 +7961,13 @@
         <v>12</v>
       </c>
       <c r="I303" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J303">
         <v>42500</v>
       </c>
       <c r="K303" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L303">
         <v>2023</v>
@@ -7973,7 +7975,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K304" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L304">
         <v>2023</v>
@@ -7981,7 +7983,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -7996,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="F305" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G305" t="s">
         <v>12</v>
@@ -8005,13 +8007,13 @@
         <v>12</v>
       </c>
       <c r="I305" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J305">
         <v>500</v>
       </c>
       <c r="K305" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L305">
         <v>2023</v>
@@ -8019,7 +8021,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K306" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L306">
         <v>2023</v>
@@ -8027,7 +8029,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B307">
         <v>81</v>
@@ -8042,22 +8044,22 @@
         <v>81</v>
       </c>
       <c r="F307" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G307" t="s">
         <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I307" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J307">
         <v>197500</v>
       </c>
       <c r="K307" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L307">
         <v>2023</v>
@@ -8065,7 +8067,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K308" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L308">
         <v>2023</v>
@@ -8073,7 +8075,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B309">
         <v>4</v>
@@ -8088,22 +8090,22 @@
         <v>4</v>
       </c>
       <c r="F309" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G309" t="s">
         <v>12</v>
       </c>
       <c r="H309" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I309" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J309">
         <v>155000</v>
       </c>
       <c r="K309" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L309">
         <v>2023</v>
@@ -8111,7 +8113,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K310" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L310">
         <v>2023</v>
@@ -8119,7 +8121,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B311">
         <v>142</v>
@@ -8134,22 +8136,22 @@
         <v>143</v>
       </c>
       <c r="F311" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G311" t="s">
         <v>12</v>
       </c>
       <c r="H311" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I311" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J311">
         <v>676000</v>
       </c>
       <c r="K311" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L311">
         <v>2023</v>
@@ -8157,7 +8159,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K312" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L312">
         <v>2023</v>
@@ -8165,7 +8167,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K313" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L313">
         <v>2023</v>
@@ -8173,7 +8175,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K314" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L314">
         <v>2023</v>
@@ -8181,10 +8183,10 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K315" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L315">
         <v>2023</v>
@@ -8192,7 +8194,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K316" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L316">
         <v>2023</v>
@@ -8215,22 +8217,22 @@
         <v>138</v>
       </c>
       <c r="F317" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G317" t="s">
         <v>12</v>
       </c>
       <c r="H317" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I317" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J317">
         <v>205500</v>
       </c>
       <c r="K317" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L317">
         <v>2023</v>
@@ -8238,7 +8240,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K318" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L318">
         <v>2023</v>
@@ -8246,7 +8248,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B319">
         <v>63</v>
@@ -8261,7 +8263,7 @@
         <v>63</v>
       </c>
       <c r="F319" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G319" t="s">
         <v>12</v>
@@ -8270,13 +8272,13 @@
         <v>12</v>
       </c>
       <c r="I319" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J319">
         <v>94500</v>
       </c>
       <c r="K319" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L319">
         <v>2023</v>
@@ -8284,7 +8286,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K320" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L320">
         <v>2023</v>
@@ -8292,7 +8294,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -8307,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="F321" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G321" t="s">
         <v>12</v>
@@ -8316,13 +8318,13 @@
         <v>12</v>
       </c>
       <c r="I321" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J321">
         <v>3000</v>
       </c>
       <c r="K321" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L321">
         <v>2023</v>
@@ -8330,7 +8332,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K322" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L322">
         <v>2023</v>
@@ -8338,7 +8340,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B323">
         <v>424</v>
@@ -8353,22 +8355,22 @@
         <v>424</v>
       </c>
       <c r="F323" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
       </c>
       <c r="H323" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I323" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J323">
         <v>203000</v>
       </c>
       <c r="K323" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L323">
         <v>2023</v>
@@ -8376,7 +8378,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K324" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L324">
         <v>2023</v>
@@ -8384,7 +8386,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B325">
         <v>8</v>
@@ -8399,22 +8401,22 @@
         <v>8</v>
       </c>
       <c r="F325" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G325" t="s">
         <v>12</v>
       </c>
       <c r="H325" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I325" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J325">
         <v>10500</v>
       </c>
       <c r="K325" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L325">
         <v>2023</v>
@@ -8422,7 +8424,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K326" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L326">
         <v>2023</v>
@@ -8430,7 +8432,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B327">
         <v>9</v>
@@ -8445,7 +8447,7 @@
         <v>9</v>
       </c>
       <c r="F327" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -8454,13 +8456,13 @@
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J327">
         <v>22500</v>
       </c>
       <c r="K327" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L327">
         <v>2023</v>
@@ -8468,7 +8470,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K328" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L328">
         <v>2023</v>
@@ -8476,7 +8478,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B329">
         <v>86</v>
@@ -8491,22 +8493,22 @@
         <v>86</v>
       </c>
       <c r="F329" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G329" t="s">
         <v>12</v>
       </c>
       <c r="H329" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I329" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J329">
         <v>164000</v>
       </c>
       <c r="K329" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L329">
         <v>2023</v>
@@ -8514,7 +8516,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K330" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L330">
         <v>2023</v>
@@ -8522,7 +8524,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B331">
         <v>28</v>
@@ -8537,7 +8539,7 @@
         <v>28</v>
       </c>
       <c r="F331" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
@@ -8546,13 +8548,13 @@
         <v>12</v>
       </c>
       <c r="I331" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J331">
         <v>42000</v>
       </c>
       <c r="K331" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L331">
         <v>2023</v>
@@ -8560,7 +8562,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K332" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L332">
         <v>2023</v>
@@ -8583,7 +8585,7 @@
         <v>42</v>
       </c>
       <c r="F333" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -8592,13 +8594,13 @@
         <v>12</v>
       </c>
       <c r="I333" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J333">
         <v>84000</v>
       </c>
       <c r="K333" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L333">
         <v>2023</v>
@@ -8606,7 +8608,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K334" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L334">
         <v>2023</v>
@@ -8629,7 +8631,7 @@
         <v>157</v>
       </c>
       <c r="F335" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G335" t="s">
         <v>12</v>
@@ -8638,13 +8640,13 @@
         <v>12</v>
       </c>
       <c r="I335" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J335">
         <v>392500</v>
       </c>
       <c r="K335" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L335">
         <v>2023</v>
@@ -8652,7 +8654,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K336" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L336">
         <v>2023</v>
@@ -8660,7 +8662,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -8675,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="F337" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G337" t="s">
         <v>12</v>
@@ -8684,13 +8686,13 @@
         <v>12</v>
       </c>
       <c r="I337" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J337">
         <v>1500</v>
       </c>
       <c r="K337" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L337">
         <v>2023</v>
@@ -8698,7 +8700,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K338" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L338">
         <v>2023</v>
@@ -8721,22 +8723,22 @@
         <v>97</v>
       </c>
       <c r="F339" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
       </c>
       <c r="H339" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I339" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J339">
         <v>144000</v>
       </c>
       <c r="K339" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L339">
         <v>2023</v>
@@ -8744,7 +8746,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K340" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L340">
         <v>2023</v>
@@ -8752,37 +8754,37 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>282</v>
+      </c>
+      <c r="B341" t="s">
+        <v>283</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>283</v>
+      </c>
+      <c r="F341" t="s">
+        <v>284</v>
+      </c>
+      <c r="G341" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" t="s">
         <v>285</v>
       </c>
-      <c r="B341" t="s">
+      <c r="I341" t="s">
         <v>286</v>
-      </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341" t="s">
-        <v>286</v>
-      </c>
-      <c r="F341" t="s">
-        <v>287</v>
-      </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
-      <c r="H341" t="s">
-        <v>288</v>
-      </c>
-      <c r="I341" t="s">
-        <v>289</v>
       </c>
       <c r="J341">
         <v>1367000</v>
       </c>
       <c r="K341" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L341">
         <v>2023</v>
@@ -8790,7 +8792,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K342" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L342">
         <v>2023</v>
@@ -8798,7 +8800,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K343" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L343">
         <v>2023</v>
@@ -8806,7 +8808,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K344" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L344">
         <v>2023</v>
@@ -8814,10 +8816,10 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K345" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L345">
         <v>2023</v>
@@ -8825,7 +8827,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K346" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L346">
         <v>2023</v>
@@ -8833,7 +8835,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -8848,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="F347" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G347" t="s">
         <v>12</v>
@@ -8857,13 +8859,13 @@
         <v>12</v>
       </c>
       <c r="I347" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J347">
         <v>8500</v>
       </c>
       <c r="K347" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L347">
         <v>2023</v>
@@ -8871,7 +8873,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K348" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L348">
         <v>2023</v>
@@ -8879,7 +8881,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B349">
         <v>4</v>
@@ -8894,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="F349" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G349" t="s">
         <v>12</v>
@@ -8903,13 +8905,13 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J349">
         <v>34000</v>
       </c>
       <c r="K349" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L349">
         <v>2023</v>
@@ -8917,7 +8919,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K350" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L350">
         <v>2023</v>
@@ -8925,7 +8927,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -8940,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="F351" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G351" t="s">
         <v>12</v>
@@ -8949,13 +8951,13 @@
         <v>12</v>
       </c>
       <c r="I351" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J351">
         <v>8500</v>
       </c>
       <c r="K351" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L351">
         <v>2023</v>
@@ -8963,7 +8965,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K352" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L352">
         <v>2023</v>
@@ -8971,7 +8973,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B353">
         <v>6</v>
@@ -8986,7 +8988,7 @@
         <v>6</v>
       </c>
       <c r="F353" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G353" t="s">
         <v>12</v>
@@ -8995,13 +8997,13 @@
         <v>12</v>
       </c>
       <c r="I353" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J353">
         <v>51000</v>
       </c>
       <c r="K353" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L353">
         <v>2023</v>
@@ -9009,7 +9011,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K354" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L354">
         <v>2023</v>
@@ -9017,7 +9019,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K355" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L355">
         <v>2023</v>
@@ -9025,7 +9027,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K356" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L356">
         <v>2023</v>
@@ -9033,10 +9035,10 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K357" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L357">
         <v>2023</v>
@@ -9044,7 +9046,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K358" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L358">
         <v>2023</v>
@@ -9052,7 +9054,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B359">
         <v>6</v>
@@ -9067,7 +9069,7 @@
         <v>6</v>
       </c>
       <c r="F359" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G359" t="s">
         <v>12</v>
@@ -9076,13 +9078,13 @@
         <v>12</v>
       </c>
       <c r="I359" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J359">
         <v>27000</v>
       </c>
       <c r="K359" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L359">
         <v>2023</v>
@@ -9090,7 +9092,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K360" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L360">
         <v>2023</v>
@@ -9098,7 +9100,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B361">
         <v>10</v>
@@ -9128,7 +9130,7 @@
         <v>40000</v>
       </c>
       <c r="K361" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L361">
         <v>2023</v>
@@ -9136,7 +9138,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K362" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L362">
         <v>2023</v>
@@ -9144,7 +9146,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B363">
         <v>14</v>
@@ -9159,7 +9161,7 @@
         <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G363" t="s">
         <v>12</v>
@@ -9168,13 +9170,13 @@
         <v>12</v>
       </c>
       <c r="I363" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J363">
         <v>56000</v>
       </c>
       <c r="K363" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L363">
         <v>2023</v>
@@ -9182,7 +9184,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K364" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L364">
         <v>2023</v>
@@ -9190,7 +9192,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -9220,7 +9222,7 @@
         <v>4000</v>
       </c>
       <c r="K365" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L365">
         <v>2023</v>
@@ -9228,7 +9230,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K366" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L366">
         <v>2023</v>
@@ -9236,7 +9238,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B367">
         <v>17</v>
@@ -9251,7 +9253,7 @@
         <v>17</v>
       </c>
       <c r="F367" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G367" t="s">
         <v>12</v>
@@ -9260,13 +9262,13 @@
         <v>12</v>
       </c>
       <c r="I367" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J367">
         <v>59500</v>
       </c>
       <c r="K367" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L367">
         <v>2023</v>
@@ -9274,7 +9276,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K368" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L368">
         <v>2023</v>
@@ -9282,7 +9284,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B369">
         <v>18</v>
@@ -9297,7 +9299,7 @@
         <v>18</v>
       </c>
       <c r="F369" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G369" t="s">
         <v>12</v>
@@ -9306,13 +9308,13 @@
         <v>12</v>
       </c>
       <c r="I369" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J369">
         <v>180000</v>
       </c>
       <c r="K369" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L369">
         <v>2023</v>
@@ -9320,7 +9322,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K370" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L370">
         <v>2023</v>
@@ -9328,7 +9330,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B371">
         <v>19</v>
@@ -9343,7 +9345,7 @@
         <v>19</v>
       </c>
       <c r="F371" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G371" t="s">
         <v>12</v>
@@ -9352,13 +9354,13 @@
         <v>12</v>
       </c>
       <c r="I371" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J371">
         <v>76000</v>
       </c>
       <c r="K371" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L371">
         <v>2023</v>
@@ -9366,7 +9368,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K372" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L372">
         <v>2023</v>
@@ -9374,7 +9376,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B373">
         <v>85</v>
@@ -9389,7 +9391,7 @@
         <v>85</v>
       </c>
       <c r="F373" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G373" t="s">
         <v>12</v>
@@ -9398,13 +9400,13 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J373">
         <v>442500</v>
       </c>
       <c r="K373" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L373">
         <v>2023</v>
@@ -9412,7 +9414,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K374" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L374">
         <v>2023</v>
@@ -9420,7 +9422,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K375" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L375">
         <v>2023</v>
@@ -9428,7 +9430,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K376" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L376">
         <v>2023</v>
@@ -9436,10 +9438,10 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K377" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L377">
         <v>2023</v>
@@ -9447,7 +9449,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K378" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L378">
         <v>2023</v>
@@ -9455,7 +9457,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B379">
         <v>7</v>
@@ -9470,7 +9472,7 @@
         <v>7</v>
       </c>
       <c r="F379" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G379" t="s">
         <v>12</v>
@@ -9479,13 +9481,13 @@
         <v>12</v>
       </c>
       <c r="I379" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J379">
         <v>105000</v>
       </c>
       <c r="K379" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L379">
         <v>2023</v>
@@ -9493,7 +9495,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K380" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L380">
         <v>2023</v>
@@ -9501,7 +9503,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -9516,7 +9518,7 @@
         <v>5</v>
       </c>
       <c r="F381" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G381" t="s">
         <v>12</v>
@@ -9525,13 +9527,13 @@
         <v>12</v>
       </c>
       <c r="I381" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J381">
         <v>75000</v>
       </c>
       <c r="K381" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L381">
         <v>2023</v>
@@ -9539,7 +9541,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K382" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L382">
         <v>2023</v>
@@ -9547,7 +9549,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B383">
         <v>5</v>
@@ -9562,7 +9564,7 @@
         <v>5</v>
       </c>
       <c r="F383" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G383" t="s">
         <v>12</v>
@@ -9571,13 +9573,13 @@
         <v>12</v>
       </c>
       <c r="I383" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J383">
         <v>75000</v>
       </c>
       <c r="K383" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L383">
         <v>2023</v>
@@ -9585,7 +9587,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K384" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L384">
         <v>2023</v>
@@ -9593,7 +9595,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -9623,7 +9625,7 @@
         <v>15000</v>
       </c>
       <c r="K385" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L385">
         <v>2023</v>
@@ -9631,7 +9633,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K386" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L386">
         <v>2023</v>
@@ -9639,7 +9641,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B387">
         <v>18</v>
@@ -9654,7 +9656,7 @@
         <v>18</v>
       </c>
       <c r="F387" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G387" t="s">
         <v>12</v>
@@ -9663,13 +9665,13 @@
         <v>12</v>
       </c>
       <c r="I387" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J387">
         <v>270000</v>
       </c>
       <c r="K387" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L387">
         <v>2023</v>
@@ -9677,7 +9679,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K388" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L388">
         <v>2023</v>
@@ -9685,7 +9687,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K389" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L389">
         <v>2023</v>
@@ -9693,7 +9695,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K390" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L390">
         <v>2023</v>
@@ -9701,10 +9703,10 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K391" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L391">
         <v>2023</v>
@@ -9712,7 +9714,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K392" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L392">
         <v>2023</v>
@@ -9720,7 +9722,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B393">
         <v>3</v>
@@ -9735,7 +9737,7 @@
         <v>3</v>
       </c>
       <c r="F393" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G393" t="s">
         <v>12</v>
@@ -9744,13 +9746,13 @@
         <v>12</v>
       </c>
       <c r="I393" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J393">
         <v>75000</v>
       </c>
       <c r="K393" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L393">
         <v>2023</v>
@@ -9758,7 +9760,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K394" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L394">
         <v>2023</v>
@@ -9766,7 +9768,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B395">
         <v>15</v>
@@ -9781,7 +9783,7 @@
         <v>15</v>
       </c>
       <c r="F395" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G395" t="s">
         <v>12</v>
@@ -9790,13 +9792,13 @@
         <v>12</v>
       </c>
       <c r="I395" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J395">
         <v>225000</v>
       </c>
       <c r="K395" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L395">
         <v>2023</v>
@@ -9804,7 +9806,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K396" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L396">
         <v>2023</v>
@@ -9812,7 +9814,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B397">
         <v>18</v>
@@ -9827,7 +9829,7 @@
         <v>18</v>
       </c>
       <c r="F397" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G397" t="s">
         <v>12</v>
@@ -9836,13 +9838,13 @@
         <v>12</v>
       </c>
       <c r="I397" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J397">
         <v>300000</v>
       </c>
       <c r="K397" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L397">
         <v>2023</v>
@@ -9850,7 +9852,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K398" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L398">
         <v>2023</v>
@@ -9858,7 +9860,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K399" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L399">
         <v>2023</v>
@@ -9866,7 +9868,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K400" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L400">
         <v>2023</v>
@@ -9874,10 +9876,10 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K401" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L401">
         <v>2023</v>
@@ -9885,7 +9887,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K402" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L402">
         <v>2023</v>
@@ -9893,7 +9895,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B403">
         <v>3</v>
@@ -9908,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="F403" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G403" t="s">
         <v>12</v>
@@ -9917,13 +9919,13 @@
         <v>12</v>
       </c>
       <c r="I403" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J403">
         <v>60000</v>
       </c>
       <c r="K403" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L403">
         <v>2023</v>
@@ -9931,7 +9933,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K404" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L404">
         <v>2023</v>
@@ -9939,7 +9941,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B405">
         <v>3</v>
@@ -9954,7 +9956,7 @@
         <v>3</v>
       </c>
       <c r="F405" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G405" t="s">
         <v>12</v>
@@ -9963,13 +9965,13 @@
         <v>12</v>
       </c>
       <c r="I405" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J405">
         <v>45000</v>
       </c>
       <c r="K405" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L405">
         <v>2023</v>
@@ -9977,7 +9979,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K406" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L406">
         <v>2023</v>
@@ -9985,7 +9987,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -10000,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="F407" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G407" t="s">
         <v>12</v>
@@ -10009,13 +10011,13 @@
         <v>12</v>
       </c>
       <c r="I407" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J407">
         <v>25000</v>
       </c>
       <c r="K407" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L407">
         <v>2023</v>
@@ -10023,7 +10025,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K408" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L408">
         <v>2023</v>
@@ -10031,7 +10033,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B409">
         <v>7</v>
@@ -10046,7 +10048,7 @@
         <v>7</v>
       </c>
       <c r="F409" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G409" t="s">
         <v>12</v>
@@ -10055,13 +10057,13 @@
         <v>12</v>
       </c>
       <c r="I409" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J409">
         <v>130000</v>
       </c>
       <c r="K409" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L409">
         <v>2023</v>
@@ -10069,7 +10071,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K410" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L410">
         <v>2023</v>
@@ -10077,7 +10079,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K411" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L411">
         <v>2023</v>
@@ -10085,7 +10087,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K412" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L412">
         <v>2023</v>
@@ -10093,10 +10095,10 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K413" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L413">
         <v>2023</v>
@@ -10104,7 +10106,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K414" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L414">
         <v>2023</v>
@@ -10112,7 +10114,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B415">
         <v>27</v>
@@ -10127,22 +10129,22 @@
         <v>27</v>
       </c>
       <c r="F415" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G415" t="s">
         <v>12</v>
       </c>
       <c r="H415" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I415" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J415">
         <v>70000</v>
       </c>
       <c r="K415" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L415">
         <v>2023</v>
@@ -10150,7 +10152,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K416" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L416">
         <v>2023</v>
@@ -10158,7 +10160,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B417">
         <v>7</v>
@@ -10173,7 +10175,7 @@
         <v>7</v>
       </c>
       <c r="F417" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G417" t="s">
         <v>12</v>
@@ -10182,13 +10184,13 @@
         <v>12</v>
       </c>
       <c r="I417" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J417">
         <v>280000</v>
       </c>
       <c r="K417" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L417">
         <v>2023</v>
@@ -10196,7 +10198,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K418" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L418">
         <v>2023</v>
@@ -10204,7 +10206,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -10219,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="F419" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G419" t="s">
         <v>12</v>
@@ -10228,13 +10230,13 @@
         <v>12</v>
       </c>
       <c r="I419" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J419">
         <v>55000</v>
       </c>
       <c r="K419" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L419">
         <v>2023</v>
@@ -10242,7 +10244,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K420" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L420">
         <v>2023</v>
@@ -10250,7 +10252,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -10277,7 +10279,7 @@
         <v>12</v>
       </c>
       <c r="K421" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L421">
         <v>2023</v>
@@ -10285,7 +10287,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K422" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L422">
         <v>2023</v>
@@ -10293,7 +10295,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B423">
         <v>35</v>
@@ -10308,22 +10310,22 @@
         <v>38</v>
       </c>
       <c r="F423" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G423" t="s">
         <v>12</v>
       </c>
       <c r="H423" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I423" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J423">
         <v>405000</v>
       </c>
       <c r="K423" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L423">
         <v>2023</v>
@@ -10331,7 +10333,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K424" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L424">
         <v>2023</v>
@@ -10339,7 +10341,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K425" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L425">
         <v>2023</v>
@@ -10347,7 +10349,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K426" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L426">
         <v>2023</v>
@@ -10355,10 +10357,10 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K427" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L427">
         <v>2023</v>
@@ -10366,7 +10368,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K428" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L428">
         <v>2023</v>
@@ -10374,7 +10376,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B429">
         <v>22</v>
@@ -10389,7 +10391,7 @@
         <v>22</v>
       </c>
       <c r="F429" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G429" t="s">
         <v>12</v>
@@ -10398,13 +10400,13 @@
         <v>12</v>
       </c>
       <c r="I429" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J429">
         <v>88000</v>
       </c>
       <c r="K429" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L429">
         <v>2023</v>
@@ -10412,7 +10414,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K430" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L430">
         <v>2023</v>
@@ -10420,7 +10422,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B431">
         <v>4</v>
@@ -10450,7 +10452,7 @@
         <v>200000</v>
       </c>
       <c r="K431" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L431">
         <v>2023</v>
@@ -10458,7 +10460,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K432" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L432">
         <v>2023</v>
@@ -10466,7 +10468,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B433">
         <v>5</v>
@@ -10496,7 +10498,7 @@
         <v>20000</v>
       </c>
       <c r="K433" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L433">
         <v>2023</v>
@@ -10504,7 +10506,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K434" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L434">
         <v>2023</v>
@@ -10512,7 +10514,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B435">
         <v>4</v>
@@ -10527,7 +10529,7 @@
         <v>4</v>
       </c>
       <c r="F435" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G435" t="s">
         <v>12</v>
@@ -10536,13 +10538,13 @@
         <v>12</v>
       </c>
       <c r="I435" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J435">
         <v>240000</v>
       </c>
       <c r="K435" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L435">
         <v>2023</v>
@@ -10550,7 +10552,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K436" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L436">
         <v>2023</v>
@@ -10558,7 +10560,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -10573,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="F437" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G437" t="s">
         <v>12</v>
@@ -10582,13 +10584,13 @@
         <v>12</v>
       </c>
       <c r="I437" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J437">
         <v>70000</v>
       </c>
       <c r="K437" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L437">
         <v>2023</v>
@@ -10596,7 +10598,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K438" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L438">
         <v>2023</v>
@@ -10604,7 +10606,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -10619,22 +10621,22 @@
         <v>2</v>
       </c>
       <c r="F439" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G439" t="s">
         <v>12</v>
       </c>
       <c r="H439" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I439" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J439">
         <v>85000</v>
       </c>
       <c r="K439" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L439">
         <v>2023</v>
@@ -10642,7 +10644,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K440" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L440">
         <v>2023</v>
@@ -10650,7 +10652,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B441">
         <v>18</v>
@@ -10665,22 +10667,22 @@
         <v>18</v>
       </c>
       <c r="F441" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G441" t="s">
         <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I441" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J441">
         <v>56000</v>
       </c>
       <c r="K441" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L441">
         <v>2023</v>
@@ -10688,7 +10690,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K442" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L442">
         <v>2023</v>
@@ -10696,7 +10698,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B443">
         <v>21</v>
@@ -10711,7 +10713,7 @@
         <v>21</v>
       </c>
       <c r="F443" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G443" t="s">
         <v>12</v>
@@ -10720,13 +10722,13 @@
         <v>12</v>
       </c>
       <c r="I443" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J443">
         <v>63000</v>
       </c>
       <c r="K443" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L443">
         <v>2023</v>
@@ -10734,7 +10736,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K444" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L444">
         <v>2023</v>
@@ -10742,7 +10744,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B445">
         <v>5</v>
@@ -10772,7 +10774,7 @@
         <v>200000</v>
       </c>
       <c r="K445" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L445">
         <v>2023</v>
@@ -10780,7 +10782,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K446" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L446">
         <v>2023</v>
@@ -10788,7 +10790,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B447">
         <v>82</v>
@@ -10803,22 +10805,22 @@
         <v>82</v>
       </c>
       <c r="F447" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G447" t="s">
         <v>12</v>
       </c>
       <c r="H447" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I447" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J447">
         <v>1022000</v>
       </c>
       <c r="K447" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L447">
         <v>2023</v>
@@ -10826,7 +10828,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K448" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L448">
         <v>2023</v>
@@ -10834,7 +10836,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K449" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L449">
         <v>2023</v>
@@ -10842,7 +10844,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K450" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L450">
         <v>2023</v>
@@ -10850,10 +10852,10 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B451" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C451">
         <v>79</v>
@@ -10862,25 +10864,25 @@
         <v>0</v>
       </c>
       <c r="E451" t="s">
+        <v>358</v>
+      </c>
+      <c r="F451" t="s">
+        <v>359</v>
+      </c>
+      <c r="G451" t="s">
+        <v>12</v>
+      </c>
+      <c r="H451" t="s">
+        <v>360</v>
+      </c>
+      <c r="I451" t="s">
         <v>361</v>
-      </c>
-      <c r="F451" t="s">
-        <v>362</v>
-      </c>
-      <c r="G451" t="s">
-        <v>12</v>
-      </c>
-      <c r="H451" t="s">
-        <v>363</v>
-      </c>
-      <c r="I451" t="s">
-        <v>364</v>
       </c>
       <c r="J451">
         <v>16141250</v>
       </c>
       <c r="K451" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L451">
         <v>2023</v>
@@ -10888,7 +10890,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K452" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L452">
         <v>2023</v>
@@ -10896,13 +10898,13 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F453" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K453" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L453">
         <v>2023</v>
@@ -10910,7 +10912,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K454" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L454">
         <v>2023</v>
@@ -10918,13 +10920,13 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F455" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K455" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L455">
         <v>2023</v>
@@ -10932,7 +10934,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K456" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L456">
         <v>2023</v>
@@ -10940,10 +10942,10 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B457" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C457">
         <v>79</v>
@@ -10952,19 +10954,20 @@
         <v>0</v>
       </c>
       <c r="E457" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F457" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K457" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L457">
         <v>2023</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>